--- a/spliced/walkingToRunning/2023-03-27_19-50-05/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-50-05/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-9.14015007019043</v>
+        <v>-9.328194618225098</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.555113315582275</v>
+        <v>-6.853240489959717</v>
       </c>
       <c r="E2" t="n">
-        <v>2.792672872543335</v>
+        <v>5.245095252990723</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8565583720347749</v>
+        <v>0.3769224858049733</v>
       </c>
       <c r="G2" t="n">
-        <v>1.682360221204802</v>
+        <v>-0.2748469442259254</v>
       </c>
       <c r="H2" t="n">
-        <v>1.74579396466501</v>
+        <v>0.004896030350543701</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2594857215881347</v>
+        <v>-7.405017375946045</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.807053089141846</v>
+        <v>-14.76152610778809</v>
       </c>
       <c r="E3" t="n">
-        <v>8.088808059692383</v>
+        <v>0.4900901317596435</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.239309732830677</v>
+        <v>-0.8251284312733457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5754852927407828</v>
+        <v>0.638507986693405</v>
       </c>
       <c r="H3" t="n">
-        <v>1.096922339830855</v>
+        <v>1.034206660098391</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.089113235473633</v>
+        <v>-8.944772720336914</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.850908756256104</v>
+        <v>-6.256664276123047</v>
       </c>
       <c r="E4" t="n">
-        <v>16.61727523803711</v>
+        <v>6.951004505157471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1751386040748463</v>
+        <v>-0.384797418221631</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2145548291081436</v>
+        <v>2.191421729508453</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8761335207905833</v>
+        <v>1.820474159769618</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.374373435974121</v>
+        <v>-9.14015007019043</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74084997177124</v>
+        <v>-3.555113315582275</v>
       </c>
       <c r="E5" t="n">
-        <v>8.798618316650391</v>
+        <v>2.792672872543335</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.060679824819472</v>
+        <v>-0.8565583720347749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4943530759957171</v>
+        <v>1.682360221204802</v>
       </c>
       <c r="H5" t="n">
-        <v>1.891958522744575</v>
+        <v>1.74579396466501</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-18.19405746459961</v>
+        <v>-0.2594857215881347</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.922885417938232</v>
+        <v>-3.807053089141846</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5517110824585</v>
+        <v>8.088808059692383</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.450785677701105</v>
+        <v>-0.239309732830677</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1085982450231191</v>
+        <v>0.5754852927407828</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1413266023694169</v>
+        <v>1.096922339830855</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-16.09731292724609</v>
+        <v>4.089113235473633</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.246491432189941</v>
+        <v>-6.850908756256104</v>
       </c>
       <c r="E7" t="n">
-        <v>1.230105638504028</v>
+        <v>16.61727523803711</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3425711914571603</v>
+        <v>0.1751386040748463</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.118668488800253</v>
+        <v>-0.2145548291081436</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.763528636449275</v>
+        <v>0.8761335207905833</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.167733669281006</v>
+        <v>6.374373435974121</v>
       </c>
       <c r="D8" t="n">
-        <v>-27.47990798950196</v>
+        <v>6.74084997177124</v>
       </c>
       <c r="E8" t="n">
-        <v>20.13128471374512</v>
+        <v>8.798618316650391</v>
       </c>
       <c r="F8" t="n">
-        <v>1.661536096485417</v>
+        <v>-1.060679824819472</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.177148738282218</v>
+        <v>0.4943530759957171</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.591206591202183</v>
+        <v>1.891958522744575</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38.20926666259766</v>
+        <v>-18.19405746459961</v>
       </c>
       <c r="D9" t="n">
-        <v>8.221505165100098</v>
+        <v>-1.922885417938232</v>
       </c>
       <c r="E9" t="n">
-        <v>37.43196487426758</v>
+        <v>11.5517110824585</v>
       </c>
       <c r="F9" t="n">
-        <v>1.500267133962643</v>
+        <v>-0.450785677701105</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.098495937851318</v>
+        <v>-0.1085982450231191</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.773556591641946</v>
+        <v>0.1413266023694169</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-9.185737609863279</v>
+        <v>-16.09731292724609</v>
       </c>
       <c r="D10" t="n">
-        <v>6.29133415222168</v>
+        <v>-5.246491432189941</v>
       </c>
       <c r="E10" t="n">
-        <v>1.174301743507385</v>
+        <v>1.230105638504028</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.984340389743152</v>
+        <v>0.3425711914571603</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.351582744756633</v>
+        <v>-2.118668488800253</v>
       </c>
       <c r="H10" t="n">
-        <v>1.246524475547487</v>
+        <v>-2.763528636449275</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-21.03300285339355</v>
+        <v>1.167733669281006</v>
       </c>
       <c r="D11" t="n">
-        <v>-27.21039581298828</v>
+        <v>-27.47990798950196</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.327969312667847</v>
+        <v>20.13128471374512</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.330522572629836</v>
+        <v>1.661536096485417</v>
       </c>
       <c r="G11" t="n">
-        <v>1.363846176055872</v>
+        <v>-2.177148738282218</v>
       </c>
       <c r="H11" t="n">
-        <v>4.617774886335326</v>
+        <v>-3.591206591202183</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1153392791748046</v>
+        <v>38.20926666259766</v>
       </c>
       <c r="D12" t="n">
-        <v>1.662713766098022</v>
+        <v>8.221505165100098</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.602585792541504</v>
+        <v>37.43196487426758</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.297088194101645</v>
+        <v>1.500267133962643</v>
       </c>
       <c r="G12" t="n">
-        <v>7.46291283436744</v>
+        <v>-2.098495937851318</v>
       </c>
       <c r="H12" t="n">
-        <v>1.662266135736299</v>
+        <v>-5.773556591641946</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-30.58404541015625</v>
+        <v>-9.185737609863279</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.14975070953369</v>
+        <v>6.29133415222168</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.237148284912109</v>
+        <v>1.174301743507385</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1566145409663497</v>
+        <v>-2.984340389743152</v>
       </c>
       <c r="G13" t="n">
-        <v>4.606385328884262</v>
+        <v>-1.351582744756633</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8842834989056194</v>
+        <v>1.246524475547487</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.598236083984375</v>
+        <v>-21.03300285339355</v>
       </c>
       <c r="D14" t="n">
-        <v>-49.00935745239258</v>
+        <v>-27.21039581298828</v>
       </c>
       <c r="E14" t="n">
-        <v>8.44972038269043</v>
+        <v>-3.327969312667847</v>
       </c>
       <c r="F14" t="n">
-        <v>5.259676156606183</v>
+        <v>-5.330522572629836</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.144118193455617</v>
+        <v>1.363846176055872</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.28624562092742</v>
+        <v>4.617774886335326</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-6.318488121032715</v>
+        <v>-0.1153392791748046</v>
       </c>
       <c r="D15" t="n">
-        <v>9.492542266845703</v>
+        <v>1.662713766098022</v>
       </c>
       <c r="E15" t="n">
-        <v>1.218106150627136</v>
+        <v>-6.602585792541504</v>
       </c>
       <c r="F15" t="n">
-        <v>4.500417068015016</v>
+        <v>-4.297088194101645</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.31324529439601</v>
+        <v>7.46291283436744</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.402522266171384</v>
+        <v>1.662266135736299</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-51.58052062988281</v>
+        <v>-30.58404541015625</v>
       </c>
       <c r="D16" t="n">
-        <v>-63.86045837402344</v>
+        <v>-11.14975070953369</v>
       </c>
       <c r="E16" t="n">
-        <v>42.37603759765625</v>
+        <v>-8.237148284912109</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.445235498086886</v>
+        <v>-0.1566145409663497</v>
       </c>
       <c r="G16" t="n">
-        <v>2.503525588710229</v>
+        <v>4.606385328884262</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09940216218542508</v>
+        <v>-0.8842834989056194</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-8.470245361328125</v>
+        <v>7.598236083984375</v>
       </c>
       <c r="D17" t="n">
-        <v>5.231861114501953</v>
+        <v>-49.00935745239258</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.23441886901855</v>
+        <v>8.44972038269043</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.082223704808689</v>
+        <v>5.259676156606183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7967113996306803</v>
+        <v>-3.144118193455617</v>
       </c>
       <c r="H17" t="n">
-        <v>8.42470887134173</v>
+        <v>-3.28624562092742</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-21.50184631347656</v>
+        <v>-6.318488121032715</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.417125701904297</v>
+        <v>9.492542266845703</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.449828147888184</v>
+        <v>1.218106150627136</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.0955425516487</v>
+        <v>4.500417068015016</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.407353537588252</v>
+        <v>-0.31324529439601</v>
       </c>
       <c r="H18" t="n">
-        <v>3.211009324377832</v>
+        <v>-3.402522266171384</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-21.86991500854492</v>
+        <v>-51.58052062988281</v>
       </c>
       <c r="D19" t="n">
-        <v>-24.83074569702148</v>
+        <v>-63.86045837402344</v>
       </c>
       <c r="E19" t="n">
-        <v>1.575617074966431</v>
+        <v>42.37603759765625</v>
       </c>
       <c r="F19" t="n">
-        <v>3.420750588829331</v>
+        <v>-1.445235498086886</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.409929646154669</v>
+        <v>2.503525588710229</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8056608922617063</v>
+        <v>0.09940216218542508</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.400870323181152</v>
+        <v>-8.470245361328125</v>
       </c>
       <c r="D20" t="n">
-        <v>13.92329216003418</v>
+        <v>5.231861114501953</v>
       </c>
       <c r="E20" t="n">
-        <v>5.784989833831787</v>
+        <v>-25.23441886901855</v>
       </c>
       <c r="F20" t="n">
-        <v>5.383590975182555</v>
+        <v>-8.082223704808689</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.346148073412959</v>
+        <v>0.7967113996306803</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.09347351565632778</v>
+        <v>8.42470887134173</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-21.50184631347656</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.417125701904297</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-8.449828147888184</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.0955425516487</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-6.407353537588252</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.211009324377832</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-21.86991500854492</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-24.83074569702148</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.575617074966431</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.420750588829331</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-8.409929646154669</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8056608922617063</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.400870323181152</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.92329216003418</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.784989833831787</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.383590975182555</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4.346148073412959</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.09347351565632778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>0.5669898986816406</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>13.84309577941894</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>9.06630802154541</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>1.778205815361046</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-1.402306104331036</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>-0.230236690637843</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4.273637771606445</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-40.02112579345703</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.01494979858398</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.16472590750482</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5638766811924731</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.501450692722371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-33.29051208496094</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13.78821468353272</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5.866414546966553</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.917193829232435</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.08571250834320598</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.5273152324309833</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-38.59527587890625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-11.46046161651611</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-14.89169502258301</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.5172856062260307</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.862342070283832</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.60658347866941</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>69.93356323242188</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-70.74887084960938</v>
+      </c>
+      <c r="E28" t="n">
+        <v>44.17119979858398</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.666729755276673</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2906178595197595</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.515296798606113</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.73312759399414</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12.10027313232422</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.143325805664063</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.873153332539526</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-9.141991994266446</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.962461360677373</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>16.71687316894531</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-16.55658340454102</v>
+      </c>
+      <c r="E30" t="n">
+        <v>22.30324172973633</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.324421677787197</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.62868054152566</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.05621947888198298</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-58.74892807006836</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-18.46404838562012</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-22.14792823791504</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.513774491813999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.990525447645534</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.551176387670226</v>
       </c>
     </row>
   </sheetData>
